--- a/CSE108-2020 Lab Grades.xlsx
+++ b/CSE108-2020 Lab Grades.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Lab Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED717C1-5504-4381-B3E3-C69166CBE034}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6DFA03-48EA-42E7-BA46-9F7F1596D8B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-115" yWindow="-115" windowWidth="24697" windowHeight="13381" xr2:uid="{B5F92FE3-3D2D-404A-B840-6198D4744755}"/>
+    <workbookView xWindow="-9596" yWindow="1147" windowWidth="18351" windowHeight="9557" xr2:uid="{B5F92FE3-3D2D-404A-B840-6198D4744755}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -33,42 +33,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="73">
   <si>
-    <t>Bölümü :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENDÜSTRİ MÜHENDİSLİĞİ </t>
-  </si>
-  <si>
-    <t>Öğretim Yılı :</t>
-  </si>
-  <si>
     <t xml:space="preserve">2019 - 2020 </t>
   </si>
   <si>
-    <t>Ders Adı :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50202014 CSE108 İLERİ PROGRAMLAMA </t>
-  </si>
-  <si>
-    <t>Dönemi :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahar </t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
-    <t>Öğrenci No</t>
-  </si>
-  <si>
-    <t>Adı</t>
-  </si>
-  <si>
-    <t>Soyadı</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -219,9 +189,6 @@
     <t xml:space="preserve">MUHACIR </t>
   </si>
   <si>
-    <t>LAB NOTLARI</t>
-  </si>
-  <si>
     <t>01.03.2020</t>
   </si>
   <si>
@@ -249,7 +216,40 @@
     <t>Lab6</t>
   </si>
   <si>
-    <t>T.C. TOROS ÜNİVERSİTESİ MÜHENDİSLİK FAKÜLTESİ</t>
+    <t>T.C. TOROS UNIVERSITY FACULTY OF ENGINEERING</t>
+  </si>
+  <si>
+    <t>LAB GRADES</t>
+  </si>
+  <si>
+    <t>Department :</t>
+  </si>
+  <si>
+    <t>Academic Year :</t>
+  </si>
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>Term :</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Student No</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDUSTRIAL ENGINEERING </t>
+  </si>
+  <si>
+    <t>50202014 CSE108 ADVANCED PROGRAMMING</t>
   </si>
 </sst>
 </file>
@@ -269,22 +269,30 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
     <font>
       <sz val="7.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
     </font>
     <font>
       <b/>
@@ -343,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -748,11 +756,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -764,24 +785,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -810,15 +816,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -856,9 +856,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -885,6 +882,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1203,13 +1221,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3404B6-4B7B-45D4-A555-61E65AB190A3}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.77734375" customWidth="1"/>
+    <col min="3" max="4" width="9.77734375" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" customWidth="1"/>
     <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
@@ -1218,956 +1236,956 @@
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="44"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="36"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="44"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="18"/>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="22" t="s">
         <v>0</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>3</v>
       </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>7</v>
+      <c r="C5" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="37"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="C7" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>71</v>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="13">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="8">
         <v>145020011</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="47"/>
+      <c r="E9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="37"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="39"/>
       <c r="M9" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="16">
-        <v>2</v>
-      </c>
-      <c r="D10" s="16">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2</v>
+      </c>
+      <c r="D10" s="11">
         <v>145020013</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
+      <c r="E10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="16"/>
       <c r="M10" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="16">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11">
         <v>3</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="11">
         <v>155020002</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="48">
+      <c r="E11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="40">
         <v>100</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="16"/>
       <c r="M11" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="16">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11">
         <v>4</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="11">
         <v>155020005</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="52">
+      <c r="E12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="44">
         <v>90</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="45">
         <v>90</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="15">
         <v>90</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="21"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
       <c r="M12" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="16">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11">
         <v>5</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="11">
         <v>155020014</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="21"/>
+      <c r="E13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="16"/>
       <c r="M13" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="11">
+        <v>6</v>
+      </c>
+      <c r="D14" s="11">
+        <v>155020015</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="16">
-        <v>6</v>
-      </c>
-      <c r="D14" s="16">
-        <v>155020015</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="48">
+      <c r="F14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="40">
         <v>100</v>
       </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
       <c r="M14" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="16">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11">
         <v>7</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="11">
         <v>155020018</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="48"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="21"/>
+      <c r="E15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="16"/>
       <c r="M15" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11">
         <v>8</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="11">
         <v>165020020</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="21"/>
+      <c r="E16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="16"/>
       <c r="M16" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="16">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11">
         <v>9</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="11">
         <v>165020024</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="48"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
+      <c r="E17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="40"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="16"/>
       <c r="M17" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="16">
+        <v>2</v>
+      </c>
+      <c r="C18" s="11">
         <v>10</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="11">
         <v>175020808</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="20">
+      <c r="E18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="40"/>
+      <c r="H18" s="15">
         <v>100</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
       <c r="M18" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="16">
+        <v>2</v>
+      </c>
+      <c r="C19" s="11">
         <v>11</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="11">
         <v>185020002</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="48"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20">
+      <c r="E19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="40"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15">
         <v>90</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16"/>
       <c r="M19" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="11">
         <v>12</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="16">
-        <v>12</v>
-      </c>
-      <c r="D20" s="16">
+      <c r="D20" s="11">
         <v>185020004</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="48"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20">
+      <c r="E20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="40"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15">
         <v>90</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="16"/>
       <c r="M20" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="16">
+        <v>2</v>
+      </c>
+      <c r="C21" s="11">
         <v>13</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="11">
         <v>185020005</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="48">
+      <c r="E21" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="40">
         <v>100</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="14">
         <v>100</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="15">
         <v>100</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="16"/>
       <c r="M21" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="16">
+        <v>2</v>
+      </c>
+      <c r="C22" s="11">
         <v>14</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="11">
         <v>185020006</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="48">
+      <c r="E22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="40">
         <v>100</v>
       </c>
-      <c r="H22" s="19">
+      <c r="H22" s="14">
         <v>100</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="15">
         <v>90</v>
       </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="16"/>
       <c r="M22" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="16">
+        <v>2</v>
+      </c>
+      <c r="C23" s="11">
         <v>15</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="11">
         <v>185020007</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="48">
+      <c r="E23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="40">
         <v>100</v>
       </c>
-      <c r="H23" s="19">
+      <c r="H23" s="14">
         <v>100</v>
       </c>
-      <c r="I23" s="20">
+      <c r="I23" s="15">
         <v>90</v>
       </c>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="16"/>
       <c r="M23" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="16">
+        <v>2</v>
+      </c>
+      <c r="C24" s="11">
         <v>16</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="11">
         <v>185020008</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20">
+      <c r="E24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="40"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15">
         <v>90</v>
       </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="16"/>
       <c r="M24" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="16">
+        <v>2</v>
+      </c>
+      <c r="C25" s="11">
         <v>17</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="11">
         <v>185020009</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="48">
+      <c r="E25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="40">
         <v>100</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="14">
         <v>100</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="15">
         <v>90</v>
       </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="21"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="16"/>
       <c r="M25" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="16">
+        <v>2</v>
+      </c>
+      <c r="C26" s="11">
         <v>18</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="11">
         <v>185020010</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="48">
+      <c r="E26" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="40">
         <v>100</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="14">
         <v>100</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="16"/>
       <c r="M26" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="16">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11">
         <v>19</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="11">
         <v>185020012</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="48">
+      <c r="E27" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="40">
         <v>100</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20">
+      <c r="H27" s="15"/>
+      <c r="I27" s="15">
         <v>90</v>
       </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="21"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="16"/>
       <c r="M27" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="16">
+        <v>2</v>
+      </c>
+      <c r="C28" s="11">
         <v>20</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="11">
         <v>185020810</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="48">
+      <c r="E28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="40">
         <v>100</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="14">
         <v>100</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="15">
         <v>90</v>
       </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="21"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="16"/>
       <c r="M28" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="16">
+        <v>2</v>
+      </c>
+      <c r="C29" s="11">
         <v>21</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="11">
         <v>185020811</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="48"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="21"/>
+      <c r="E29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="40"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="16"/>
       <c r="M29" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="16">
+        <v>2</v>
+      </c>
+      <c r="C30" s="11">
         <v>22</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="11">
         <v>195020001</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G30" s="48"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="21"/>
+      <c r="E30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="40"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="16"/>
       <c r="M30" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="16">
+        <v>2</v>
+      </c>
+      <c r="C31" s="11">
         <v>23</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="11">
         <v>195020013</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="48"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="21"/>
+      <c r="E31" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" s="40"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="16"/>
       <c r="M31" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="16">
+        <v>2</v>
+      </c>
+      <c r="C32" s="11">
         <v>24</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="11">
         <v>195020018</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="48">
+      <c r="E32" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="40">
         <v>100</v>
       </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20">
+      <c r="H32" s="15"/>
+      <c r="I32" s="15">
         <v>90</v>
       </c>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="21"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="16"/>
       <c r="M32" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="38">
+        <v>2</v>
+      </c>
+      <c r="C33" s="31">
         <v>25</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="31">
         <v>195020801</v>
       </c>
-      <c r="E33" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="49">
+      <c r="E33" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="41">
         <v>100</v>
       </c>
-      <c r="H33" s="50">
+      <c r="H33" s="42">
         <v>100</v>
       </c>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="41"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="34"/>
       <c r="M33" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -2178,23 +2196,24 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="D2:K2"/>
+    <mergeCell ref="D4:G4"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="D2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/CSE108-2020 Lab Grades.xlsx
+++ b/CSE108-2020 Lab Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Lab Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6DFA03-48EA-42E7-BA46-9F7F1596D8B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC332A5F-39C6-4217-8B5B-613C19040C86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9596" yWindow="1147" windowWidth="18351" windowHeight="9557" xr2:uid="{B5F92FE3-3D2D-404A-B840-6198D4744755}"/>
+    <workbookView xWindow="-115" yWindow="-115" windowWidth="24697" windowHeight="13381" xr2:uid="{B5F92FE3-3D2D-404A-B840-6198D4744755}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -337,21 +337,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -757,7 +751,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -766,14 +773,16 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -878,31 +887,49 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1221,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3404B6-4B7B-45D4-A555-61E65AB190A3}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
@@ -1237,16 +1264,16 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="35"/>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
       <c r="L1" s="36"/>
       <c r="M1" s="3"/>
     </row>
@@ -1254,16 +1281,16 @@
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="35"/>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="36"/>
       <c r="M2" s="3"/>
     </row>
@@ -1271,14 +1298,14 @@
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="17"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="18"/>
       <c r="M3" s="3"/>
     </row>
@@ -1288,12 +1315,12 @@
       <c r="C4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="21"/>
@@ -1320,7 +1347,7 @@
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="26"/>
-      <c r="K5" s="51" t="s">
+      <c r="K5" s="44" t="s">
         <v>66</v>
       </c>
       <c r="L5" s="27" t="s">
@@ -1333,8 +1360,8 @@
       <c r="B6" s="1"/>
       <c r="C6" s="28"/>
       <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -1346,19 +1373,19 @@
     <row r="7" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="45" t="s">
         <v>54</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -1375,11 +1402,11 @@
     <row r="8" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="7" t="s">
+      <c r="C8" s="48"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="45" t="s">
         <v>55</v>
       </c>
       <c r="H8" s="7" t="s">
@@ -1507,10 +1534,10 @@
       <c r="F12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="57">
         <v>90</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="58">
         <v>90</v>
       </c>
       <c r="I12" s="15">
@@ -1751,7 +1778,9 @@
       <c r="F20" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="40"/>
+      <c r="G20" s="40">
+        <v>100</v>
+      </c>
       <c r="H20" s="15"/>
       <c r="I20" s="15">
         <v>90</v>
@@ -2196,10 +2225,10 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="46"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>

--- a/CSE108-2020 Lab Grades.xlsx
+++ b/CSE108-2020 Lab Grades.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Lab Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-11\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC332A5F-39C6-4217-8B5B-613C19040C86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-115" yWindow="-115" windowWidth="24697" windowHeight="13381" xr2:uid="{B5F92FE3-3D2D-404A-B840-6198D4744755}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -255,7 +254,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -337,12 +336,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="34">
@@ -782,7 +787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -893,6 +898,18 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -920,16 +937,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1245,82 +1253,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3404B6-4B7B-45D4-A555-61E65AB190A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="9.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="35"/>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
       <c r="L1" s="36"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="35"/>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
       <c r="L2" s="36"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="17"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
       <c r="L3" s="18"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
       <c r="J4" s="21"/>
@@ -1332,7 +1340,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="23" t="s">
@@ -1355,7 +1363,7 @@
       </c>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="28"/>
@@ -1370,19 +1378,19 @@
       <c r="L6" s="30"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="57" t="s">
         <v>70</v>
       </c>
       <c r="G7" s="45" t="s">
@@ -1399,13 +1407,13 @@
       <c r="L7" s="7"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="54"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="45" t="s">
         <v>55</v>
       </c>
@@ -1426,7 +1434,7 @@
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1455,7 +1463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -1484,7 +1492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1515,7 +1523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1534,10 +1542,10 @@
       <c r="F12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="46">
         <v>90</v>
       </c>
-      <c r="H12" s="58">
+      <c r="H12" s="47">
         <v>90</v>
       </c>
       <c r="I12" s="15">
@@ -1550,7 +1558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1569,9 +1577,13 @@
       <c r="F13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="G13" s="40">
+        <v>90</v>
+      </c>
+      <c r="H13" s="15">
+        <v>90</v>
+      </c>
+      <c r="I13" s="59"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="16"/>
@@ -1579,7 +1591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1610,7 +1622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1639,7 +1651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1668,7 +1680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1697,7 +1709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1728,7 +1740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
@@ -1759,7 +1771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
@@ -1792,7 +1804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1827,7 +1839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1862,7 +1874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>2</v>
       </c>
@@ -1897,7 +1909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1928,7 +1940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -1963,7 +1975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
@@ -1996,7 +2008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>2</v>
       </c>
@@ -2029,7 +2041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -2064,7 +2076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
@@ -2093,7 +2105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
@@ -2122,7 +2134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -2151,7 +2163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -2184,7 +2196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>2</v>
       </c>
@@ -2217,7 +2229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -2225,24 +2237,24 @@
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="46"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="D2:K2"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D3:K3"/>
     <mergeCell ref="H34:K34"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
